--- a/Python/pptx Modify/Sla over time by HMO.xlsx
+++ b/Python/pptx Modify/Sla over time by HMO.xlsx
@@ -367,7 +367,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,13 +400,13 @@
         <v>4.3</v>
       </c>
       <c r="C2" s="2">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="D2" s="2">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="E2" s="2">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -417,13 +417,13 @@
         <v>2.5</v>
       </c>
       <c r="C3" s="2">
-        <v>4.4000000000000004</v>
+        <v>2.1</v>
       </c>
       <c r="D3" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.39999999999999902</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -434,13 +434,13 @@
         <v>3.5</v>
       </c>
       <c r="C4" s="2">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="E4" s="2">
-        <v>4.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -451,13 +451,13 @@
         <v>4.5</v>
       </c>
       <c r="C5" s="2">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="E5" s="2">
-        <v>7.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
